--- a/medicine/Enfance/Mohammed_Dib/Mohammed_Dib.xlsx
+++ b/medicine/Enfance/Mohammed_Dib/Mohammed_Dib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mohammed Dib (en arabe : محمّد ديب) né le 21 juillet 1920 à Tlemcen et mort le 2 mai 2003 à  La Celle-Saint-Cloud, est un écrivain algérien d'expression française[1], auteur de romans, de nouvelles, de poésie, de théâtre et de contes pour enfants.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohammed Dib (en arabe : محمّد ديب) né le 21 juillet 1920 à Tlemcen et mort le 2 mai 2003 à  La Celle-Saint-Cloud, est un écrivain algérien d'expression française, auteur de romans, de nouvelles, de poésie, de théâtre et de contes pour enfants.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mohammed Dib naît le 21 juillet 1920 dans une famille de la petite bourgeoisie tlemcénienne. Son père, comme l'écrivain plus tard, a exercé plusieurs métiers : commerçant, menuisier-ébéniste, courtier dans l'immobilier. Son grand-père et son grand-oncle paternels furent au début du siècle des maîtres de la musique arabo-andalouse de la ville, à la tête de leur propre orchestre.
 Selon le choix paternel, il fait ses études dans les écoles françaises, sans fréquenter l'école coranique.
@@ -566,13 +580,15 @@
           <t>Jugements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Cet homme d'un pays qui n'a rien à voir avec les arbres de ma fenêtre parle avec les mots de Villon et de Péguy ».
 Louis Aragon
 « C'est l'écrivain de la précision dans les termes, de la retenue et de la réflexion. L'air qu'il fait entendre sur son clavecin est une musique intérieure qui parle au cœur. Écrivant en français, sans complexe et assumant sa double culture, l'auteur ne se livre pas purement et simplement au lecteur. Sa création littéraire demande souvent plusieurs lectures pour pénétrer jusqu'au sens. »
 Jean Déjeux, dans Hommage à Mohammed Dib, « Kalim », no 6, Office des Publications Universitaires (OPU), Alger, 1985.
-« L'œuvre littéraire de Mohammed Dib, commencée à la fin des années dix neuf cent quarante, est aujourd'hui la plus importante de la production algérienne en langue française. Selon Naget Khadda, elle est aussi celle qui manifeste un renouvellement constant des formes et des thèmes en même temps qu'une grande continuité et une indéniable unité[2]. »
+« L'œuvre littéraire de Mohammed Dib, commencée à la fin des années dix neuf cent quarante, est aujourd'hui la plus importante de la production algérienne en langue française. Selon Naget Khadda, elle est aussi celle qui manifeste un renouvellement constant des formes et des thèmes en même temps qu'une grande continuité et une indéniable unité. »
 </t>
         </is>
       </c>
@@ -601,7 +617,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grande Maison, roman, Le Seuil, 1952 ; réédition, Seuil, coll. « Points » no 225, 1996 - Prix Fénéon, 1953
 L'Incendie, roman, Le Seuil, 1954 ; réédition, Seuil, coll. « Points. Roman » no 351, 1989 ; réédition, Seuil, coll. « Points » no 952, 2001
@@ -643,7 +661,7 @@
 Poésies, Paris, « Œuvres complètes ». Édition critique dirigée par Habib Tengour. Paris, La Différence, 2007
 Le Vœu de la septième lune. Théâtre. présentation d'Hervé Sanson, Alger/Lunel, El Kalima/ASPAME, collection PIM "Petits inédits maghrébins", n° 8, 2019.
 Tlemcen ou les lieux de l'écriture, réédition avec les photos de Mohammed Dib augmentées d’inédits. Préface de Waciny Laredj. Alger/Marseille, Barzakh/Images Plurielles, 2020.
-Colette Dib, épouse de Mohammed Dib, a donné à la Bibliothèque nationale de France un fonds d'archives que son époux a laissé à sa mort à la Celle-Saint-Cloud[3]. Ce fonds contient une grande partie des œuvres de l'écrivain, mais non celles du début de sa carrière. Il se compose de 30 volumes et de 41 boîtes d'archives, en bon état général, lisible. Ce fonds est accessible aux personnes accréditées[4].
+Colette Dib, épouse de Mohammed Dib, a donné à la Bibliothèque nationale de France un fonds d'archives que son époux a laissé à sa mort à la Celle-Saint-Cloud. Ce fonds contient une grande partie des œuvres de l'écrivain, mais non celles du début de sa carrière. Il se compose de 30 volumes et de 41 boîtes d'archives, en bon état général, lisible. Ce fonds est accessible aux personnes accréditées.
 </t>
         </is>
       </c>
